--- a/sequences/06_retrieval_1.xlsx
+++ b/sequences/06_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1856,6 +1856,30 @@
       <c r="F2" t="s">
         <v>205</v>
       </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
@@ -2008,6 +2032,30 @@
       <c r="F6" t="s">
         <v>205</v>
       </c>
+      <c r="G6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" t="s">
+        <v>205</v>
+      </c>
+      <c r="L6" t="s">
+        <v>205</v>
+      </c>
+      <c r="M6" t="s">
+        <v>205</v>
+      </c>
+      <c r="N6" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -2072,6 +2120,30 @@
       <c r="F8" t="s">
         <v>205</v>
       </c>
+      <c r="G8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N8" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
@@ -2136,6 +2208,30 @@
       <c r="F10" t="s">
         <v>205</v>
       </c>
+      <c r="G10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" t="s">
+        <v>205</v>
+      </c>
+      <c r="M10" t="s">
+        <v>205</v>
+      </c>
+      <c r="N10" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
@@ -2244,6 +2340,30 @@
       <c r="F13" t="s">
         <v>205</v>
       </c>
+      <c r="G13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" t="s">
+        <v>205</v>
+      </c>
+      <c r="J13" t="s">
+        <v>205</v>
+      </c>
+      <c r="K13" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" t="s">
+        <v>205</v>
+      </c>
+      <c r="M13" t="s">
+        <v>205</v>
+      </c>
+      <c r="N13" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
@@ -2352,6 +2472,30 @@
       <c r="F16" t="s">
         <v>205</v>
       </c>
+      <c r="G16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" t="s">
+        <v>205</v>
+      </c>
+      <c r="J16" t="s">
+        <v>205</v>
+      </c>
+      <c r="K16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L16" t="s">
+        <v>205</v>
+      </c>
+      <c r="M16" t="s">
+        <v>205</v>
+      </c>
+      <c r="N16" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
@@ -2372,6 +2516,30 @@
       <c r="F17" t="s">
         <v>205</v>
       </c>
+      <c r="G17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" t="s">
+        <v>205</v>
+      </c>
+      <c r="I17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" t="s">
+        <v>205</v>
+      </c>
+      <c r="M17" t="s">
+        <v>205</v>
+      </c>
+      <c r="N17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
@@ -2392,6 +2560,30 @@
       <c r="F18" t="s">
         <v>205</v>
       </c>
+      <c r="G18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" t="s">
+        <v>205</v>
+      </c>
+      <c r="I18" t="s">
+        <v>205</v>
+      </c>
+      <c r="J18" t="s">
+        <v>205</v>
+      </c>
+      <c r="K18" t="s">
+        <v>205</v>
+      </c>
+      <c r="L18" t="s">
+        <v>205</v>
+      </c>
+      <c r="M18" t="s">
+        <v>205</v>
+      </c>
+      <c r="N18" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
@@ -2588,6 +2780,30 @@
       <c r="F23" t="s">
         <v>205</v>
       </c>
+      <c r="G23" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="s">
+        <v>205</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
@@ -2784,6 +3000,30 @@
       <c r="F28" t="s">
         <v>205</v>
       </c>
+      <c r="G28" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" t="s">
+        <v>205</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" t="s">
+        <v>205</v>
+      </c>
+      <c r="L28" t="s">
+        <v>205</v>
+      </c>
+      <c r="M28" t="s">
+        <v>205</v>
+      </c>
+      <c r="N28" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
@@ -2848,6 +3088,30 @@
       <c r="F30" t="s">
         <v>205</v>
       </c>
+      <c r="G30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" t="s">
+        <v>205</v>
+      </c>
+      <c r="M30" t="s">
+        <v>205</v>
+      </c>
+      <c r="N30" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -2868,6 +3132,30 @@
       <c r="F31" t="s">
         <v>205</v>
       </c>
+      <c r="G31" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" t="s">
+        <v>205</v>
+      </c>
+      <c r="I31" t="s">
+        <v>205</v>
+      </c>
+      <c r="J31" t="s">
+        <v>205</v>
+      </c>
+      <c r="K31" t="s">
+        <v>205</v>
+      </c>
+      <c r="L31" t="s">
+        <v>205</v>
+      </c>
+      <c r="M31" t="s">
+        <v>205</v>
+      </c>
+      <c r="N31" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
@@ -2932,6 +3220,30 @@
       <c r="F33" t="s">
         <v>205</v>
       </c>
+      <c r="G33" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" t="s">
+        <v>205</v>
+      </c>
+      <c r="K33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L33" t="s">
+        <v>205</v>
+      </c>
+      <c r="M33" t="s">
+        <v>205</v>
+      </c>
+      <c r="N33" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
@@ -3216,6 +3528,30 @@
       <c r="F40" t="s">
         <v>205</v>
       </c>
+      <c r="G40" t="s">
+        <v>205</v>
+      </c>
+      <c r="H40" t="s">
+        <v>205</v>
+      </c>
+      <c r="I40" t="s">
+        <v>205</v>
+      </c>
+      <c r="J40" t="s">
+        <v>205</v>
+      </c>
+      <c r="K40" t="s">
+        <v>205</v>
+      </c>
+      <c r="L40" t="s">
+        <v>205</v>
+      </c>
+      <c r="M40" t="s">
+        <v>205</v>
+      </c>
+      <c r="N40" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
@@ -3280,6 +3616,30 @@
       <c r="F42" t="s">
         <v>205</v>
       </c>
+      <c r="G42" t="s">
+        <v>205</v>
+      </c>
+      <c r="H42" t="s">
+        <v>205</v>
+      </c>
+      <c r="I42" t="s">
+        <v>205</v>
+      </c>
+      <c r="J42" t="s">
+        <v>205</v>
+      </c>
+      <c r="K42" t="s">
+        <v>205</v>
+      </c>
+      <c r="L42" t="s">
+        <v>205</v>
+      </c>
+      <c r="M42" t="s">
+        <v>205</v>
+      </c>
+      <c r="N42" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
@@ -3476,6 +3836,30 @@
       <c r="F47" t="s">
         <v>205</v>
       </c>
+      <c r="G47" t="s">
+        <v>205</v>
+      </c>
+      <c r="H47" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" t="s">
+        <v>205</v>
+      </c>
+      <c r="J47" t="s">
+        <v>205</v>
+      </c>
+      <c r="K47" t="s">
+        <v>205</v>
+      </c>
+      <c r="L47" t="s">
+        <v>205</v>
+      </c>
+      <c r="M47" t="s">
+        <v>205</v>
+      </c>
+      <c r="N47" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
@@ -3496,6 +3880,30 @@
       <c r="F48" t="s">
         <v>205</v>
       </c>
+      <c r="G48" t="s">
+        <v>205</v>
+      </c>
+      <c r="H48" t="s">
+        <v>205</v>
+      </c>
+      <c r="I48" t="s">
+        <v>205</v>
+      </c>
+      <c r="J48" t="s">
+        <v>205</v>
+      </c>
+      <c r="K48" t="s">
+        <v>205</v>
+      </c>
+      <c r="L48" t="s">
+        <v>205</v>
+      </c>
+      <c r="M48" t="s">
+        <v>205</v>
+      </c>
+      <c r="N48" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
@@ -3516,6 +3924,30 @@
       <c r="F49" t="s">
         <v>205</v>
       </c>
+      <c r="G49" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" t="s">
+        <v>205</v>
+      </c>
+      <c r="I49" t="s">
+        <v>205</v>
+      </c>
+      <c r="J49" t="s">
+        <v>205</v>
+      </c>
+      <c r="K49" t="s">
+        <v>205</v>
+      </c>
+      <c r="L49" t="s">
+        <v>205</v>
+      </c>
+      <c r="M49" t="s">
+        <v>205</v>
+      </c>
+      <c r="N49" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
@@ -3536,6 +3968,30 @@
       <c r="F50" t="s">
         <v>205</v>
       </c>
+      <c r="G50" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" t="s">
+        <v>205</v>
+      </c>
+      <c r="J50" t="s">
+        <v>205</v>
+      </c>
+      <c r="K50" t="s">
+        <v>205</v>
+      </c>
+      <c r="L50" t="s">
+        <v>205</v>
+      </c>
+      <c r="M50" t="s">
+        <v>205</v>
+      </c>
+      <c r="N50" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
@@ -3644,6 +4100,30 @@
       <c r="F53" t="s">
         <v>205</v>
       </c>
+      <c r="G53" t="s">
+        <v>205</v>
+      </c>
+      <c r="H53" t="s">
+        <v>205</v>
+      </c>
+      <c r="I53" t="s">
+        <v>205</v>
+      </c>
+      <c r="J53" t="s">
+        <v>205</v>
+      </c>
+      <c r="K53" t="s">
+        <v>205</v>
+      </c>
+      <c r="L53" t="s">
+        <v>205</v>
+      </c>
+      <c r="M53" t="s">
+        <v>205</v>
+      </c>
+      <c r="N53" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
@@ -3708,6 +4188,30 @@
       <c r="F55" t="s">
         <v>205</v>
       </c>
+      <c r="G55" t="s">
+        <v>205</v>
+      </c>
+      <c r="H55" t="s">
+        <v>205</v>
+      </c>
+      <c r="I55" t="s">
+        <v>205</v>
+      </c>
+      <c r="J55" t="s">
+        <v>205</v>
+      </c>
+      <c r="K55" t="s">
+        <v>205</v>
+      </c>
+      <c r="L55" t="s">
+        <v>205</v>
+      </c>
+      <c r="M55" t="s">
+        <v>205</v>
+      </c>
+      <c r="N55" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
@@ -3816,6 +4320,30 @@
       <c r="F58" t="s">
         <v>205</v>
       </c>
+      <c r="G58" t="s">
+        <v>205</v>
+      </c>
+      <c r="H58" t="s">
+        <v>205</v>
+      </c>
+      <c r="I58" t="s">
+        <v>205</v>
+      </c>
+      <c r="J58" t="s">
+        <v>205</v>
+      </c>
+      <c r="K58" t="s">
+        <v>205</v>
+      </c>
+      <c r="L58" t="s">
+        <v>205</v>
+      </c>
+      <c r="M58" t="s">
+        <v>205</v>
+      </c>
+      <c r="N58" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
@@ -3968,6 +4496,30 @@
       <c r="F62" t="s">
         <v>205</v>
       </c>
+      <c r="G62" t="s">
+        <v>205</v>
+      </c>
+      <c r="H62" t="s">
+        <v>205</v>
+      </c>
+      <c r="I62" t="s">
+        <v>205</v>
+      </c>
+      <c r="J62" t="s">
+        <v>205</v>
+      </c>
+      <c r="K62" t="s">
+        <v>205</v>
+      </c>
+      <c r="L62" t="s">
+        <v>205</v>
+      </c>
+      <c r="M62" t="s">
+        <v>205</v>
+      </c>
+      <c r="N62" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
@@ -4076,6 +4628,30 @@
       <c r="F65" t="s">
         <v>205</v>
       </c>
+      <c r="G65" t="s">
+        <v>205</v>
+      </c>
+      <c r="H65" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" t="s">
+        <v>205</v>
+      </c>
+      <c r="J65" t="s">
+        <v>205</v>
+      </c>
+      <c r="K65" t="s">
+        <v>205</v>
+      </c>
+      <c r="L65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M65" t="s">
+        <v>205</v>
+      </c>
+      <c r="N65" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
@@ -4140,6 +4716,30 @@
       <c r="F67" t="s">
         <v>205</v>
       </c>
+      <c r="G67" t="s">
+        <v>205</v>
+      </c>
+      <c r="H67" t="s">
+        <v>205</v>
+      </c>
+      <c r="I67" t="s">
+        <v>205</v>
+      </c>
+      <c r="J67" t="s">
+        <v>205</v>
+      </c>
+      <c r="K67" t="s">
+        <v>205</v>
+      </c>
+      <c r="L67" t="s">
+        <v>205</v>
+      </c>
+      <c r="M67" t="s">
+        <v>205</v>
+      </c>
+      <c r="N67" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
@@ -4336,6 +4936,30 @@
       <c r="F72" t="s">
         <v>205</v>
       </c>
+      <c r="G72" t="s">
+        <v>205</v>
+      </c>
+      <c r="H72" t="s">
+        <v>205</v>
+      </c>
+      <c r="I72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J72" t="s">
+        <v>205</v>
+      </c>
+      <c r="K72" t="s">
+        <v>205</v>
+      </c>
+      <c r="L72" t="s">
+        <v>205</v>
+      </c>
+      <c r="M72" t="s">
+        <v>205</v>
+      </c>
+      <c r="N72" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
@@ -4620,6 +5244,30 @@
       <c r="F79" t="s">
         <v>205</v>
       </c>
+      <c r="G79" t="s">
+        <v>205</v>
+      </c>
+      <c r="H79" t="s">
+        <v>205</v>
+      </c>
+      <c r="I79" t="s">
+        <v>205</v>
+      </c>
+      <c r="J79" t="s">
+        <v>205</v>
+      </c>
+      <c r="K79" t="s">
+        <v>205</v>
+      </c>
+      <c r="L79" t="s">
+        <v>205</v>
+      </c>
+      <c r="M79" t="s">
+        <v>205</v>
+      </c>
+      <c r="N79" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
@@ -4684,6 +5332,30 @@
       <c r="F81" t="s">
         <v>205</v>
       </c>
+      <c r="G81" t="s">
+        <v>205</v>
+      </c>
+      <c r="H81" t="s">
+        <v>205</v>
+      </c>
+      <c r="I81" t="s">
+        <v>205</v>
+      </c>
+      <c r="J81" t="s">
+        <v>205</v>
+      </c>
+      <c r="K81" t="s">
+        <v>205</v>
+      </c>
+      <c r="L81" t="s">
+        <v>205</v>
+      </c>
+      <c r="M81" t="s">
+        <v>205</v>
+      </c>
+      <c r="N81" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
@@ -4968,6 +5640,30 @@
       <c r="F88" t="s">
         <v>205</v>
       </c>
+      <c r="G88" t="s">
+        <v>205</v>
+      </c>
+      <c r="H88" t="s">
+        <v>205</v>
+      </c>
+      <c r="I88" t="s">
+        <v>205</v>
+      </c>
+      <c r="J88" t="s">
+        <v>205</v>
+      </c>
+      <c r="K88" t="s">
+        <v>205</v>
+      </c>
+      <c r="L88" t="s">
+        <v>205</v>
+      </c>
+      <c r="M88" t="s">
+        <v>205</v>
+      </c>
+      <c r="N88" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
@@ -5032,6 +5728,30 @@
       <c r="F90" t="s">
         <v>205</v>
       </c>
+      <c r="G90" t="s">
+        <v>205</v>
+      </c>
+      <c r="H90" t="s">
+        <v>205</v>
+      </c>
+      <c r="I90" t="s">
+        <v>205</v>
+      </c>
+      <c r="J90" t="s">
+        <v>205</v>
+      </c>
+      <c r="K90" t="s">
+        <v>205</v>
+      </c>
+      <c r="L90" t="s">
+        <v>205</v>
+      </c>
+      <c r="M90" t="s">
+        <v>205</v>
+      </c>
+      <c r="N90" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="1">
@@ -5052,6 +5772,30 @@
       <c r="F91" t="s">
         <v>205</v>
       </c>
+      <c r="G91" t="s">
+        <v>205</v>
+      </c>
+      <c r="H91" t="s">
+        <v>205</v>
+      </c>
+      <c r="I91" t="s">
+        <v>205</v>
+      </c>
+      <c r="J91" t="s">
+        <v>205</v>
+      </c>
+      <c r="K91" t="s">
+        <v>205</v>
+      </c>
+      <c r="L91" t="s">
+        <v>205</v>
+      </c>
+      <c r="M91" t="s">
+        <v>205</v>
+      </c>
+      <c r="N91" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
@@ -5072,6 +5816,30 @@
       <c r="F92" t="s">
         <v>205</v>
       </c>
+      <c r="G92" t="s">
+        <v>205</v>
+      </c>
+      <c r="H92" t="s">
+        <v>205</v>
+      </c>
+      <c r="I92" t="s">
+        <v>205</v>
+      </c>
+      <c r="J92" t="s">
+        <v>205</v>
+      </c>
+      <c r="K92" t="s">
+        <v>205</v>
+      </c>
+      <c r="L92" t="s">
+        <v>205</v>
+      </c>
+      <c r="M92" t="s">
+        <v>205</v>
+      </c>
+      <c r="N92" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
@@ -5224,6 +5992,30 @@
       <c r="F96" t="s">
         <v>205</v>
       </c>
+      <c r="G96" t="s">
+        <v>205</v>
+      </c>
+      <c r="H96" t="s">
+        <v>205</v>
+      </c>
+      <c r="I96" t="s">
+        <v>205</v>
+      </c>
+      <c r="J96" t="s">
+        <v>205</v>
+      </c>
+      <c r="K96" t="s">
+        <v>205</v>
+      </c>
+      <c r="L96" t="s">
+        <v>205</v>
+      </c>
+      <c r="M96" t="s">
+        <v>205</v>
+      </c>
+      <c r="N96" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
@@ -5244,6 +6036,30 @@
       <c r="F97" t="s">
         <v>205</v>
       </c>
+      <c r="G97" t="s">
+        <v>205</v>
+      </c>
+      <c r="H97" t="s">
+        <v>205</v>
+      </c>
+      <c r="I97" t="s">
+        <v>205</v>
+      </c>
+      <c r="J97" t="s">
+        <v>205</v>
+      </c>
+      <c r="K97" t="s">
+        <v>205</v>
+      </c>
+      <c r="L97" t="s">
+        <v>205</v>
+      </c>
+      <c r="M97" t="s">
+        <v>205</v>
+      </c>
+      <c r="N97" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
@@ -5352,6 +6168,30 @@
       <c r="F100" t="s">
         <v>205</v>
       </c>
+      <c r="G100" t="s">
+        <v>205</v>
+      </c>
+      <c r="H100" t="s">
+        <v>205</v>
+      </c>
+      <c r="I100" t="s">
+        <v>205</v>
+      </c>
+      <c r="J100" t="s">
+        <v>205</v>
+      </c>
+      <c r="K100" t="s">
+        <v>205</v>
+      </c>
+      <c r="L100" t="s">
+        <v>205</v>
+      </c>
+      <c r="M100" t="s">
+        <v>205</v>
+      </c>
+      <c r="N100" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
@@ -5372,6 +6212,30 @@
       <c r="F101" t="s">
         <v>205</v>
       </c>
+      <c r="G101" t="s">
+        <v>205</v>
+      </c>
+      <c r="H101" t="s">
+        <v>205</v>
+      </c>
+      <c r="I101" t="s">
+        <v>205</v>
+      </c>
+      <c r="J101" t="s">
+        <v>205</v>
+      </c>
+      <c r="K101" t="s">
+        <v>205</v>
+      </c>
+      <c r="L101" t="s">
+        <v>205</v>
+      </c>
+      <c r="M101" t="s">
+        <v>205</v>
+      </c>
+      <c r="N101" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
@@ -5480,6 +6344,30 @@
       <c r="F104" t="s">
         <v>205</v>
       </c>
+      <c r="G104" t="s">
+        <v>205</v>
+      </c>
+      <c r="H104" t="s">
+        <v>205</v>
+      </c>
+      <c r="I104" t="s">
+        <v>205</v>
+      </c>
+      <c r="J104" t="s">
+        <v>205</v>
+      </c>
+      <c r="K104" t="s">
+        <v>205</v>
+      </c>
+      <c r="L104" t="s">
+        <v>205</v>
+      </c>
+      <c r="M104" t="s">
+        <v>205</v>
+      </c>
+      <c r="N104" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1">
@@ -5544,6 +6432,30 @@
       <c r="F106" t="s">
         <v>205</v>
       </c>
+      <c r="G106" t="s">
+        <v>205</v>
+      </c>
+      <c r="H106" t="s">
+        <v>205</v>
+      </c>
+      <c r="I106" t="s">
+        <v>205</v>
+      </c>
+      <c r="J106" t="s">
+        <v>205</v>
+      </c>
+      <c r="K106" t="s">
+        <v>205</v>
+      </c>
+      <c r="L106" t="s">
+        <v>205</v>
+      </c>
+      <c r="M106" t="s">
+        <v>205</v>
+      </c>
+      <c r="N106" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
@@ -5564,6 +6476,30 @@
       <c r="F107" t="s">
         <v>205</v>
       </c>
+      <c r="G107" t="s">
+        <v>205</v>
+      </c>
+      <c r="H107" t="s">
+        <v>205</v>
+      </c>
+      <c r="I107" t="s">
+        <v>205</v>
+      </c>
+      <c r="J107" t="s">
+        <v>205</v>
+      </c>
+      <c r="K107" t="s">
+        <v>205</v>
+      </c>
+      <c r="L107" t="s">
+        <v>205</v>
+      </c>
+      <c r="M107" t="s">
+        <v>205</v>
+      </c>
+      <c r="N107" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
@@ -5716,6 +6652,30 @@
       <c r="F111" t="s">
         <v>205</v>
       </c>
+      <c r="G111" t="s">
+        <v>205</v>
+      </c>
+      <c r="H111" t="s">
+        <v>205</v>
+      </c>
+      <c r="I111" t="s">
+        <v>205</v>
+      </c>
+      <c r="J111" t="s">
+        <v>205</v>
+      </c>
+      <c r="K111" t="s">
+        <v>205</v>
+      </c>
+      <c r="L111" t="s">
+        <v>205</v>
+      </c>
+      <c r="M111" t="s">
+        <v>205</v>
+      </c>
+      <c r="N111" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
@@ -5824,6 +6784,30 @@
       <c r="F114" t="s">
         <v>205</v>
       </c>
+      <c r="G114" t="s">
+        <v>205</v>
+      </c>
+      <c r="H114" t="s">
+        <v>205</v>
+      </c>
+      <c r="I114" t="s">
+        <v>205</v>
+      </c>
+      <c r="J114" t="s">
+        <v>205</v>
+      </c>
+      <c r="K114" t="s">
+        <v>205</v>
+      </c>
+      <c r="L114" t="s">
+        <v>205</v>
+      </c>
+      <c r="M114" t="s">
+        <v>205</v>
+      </c>
+      <c r="N114" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
@@ -5888,6 +6872,30 @@
       <c r="F116" t="s">
         <v>205</v>
       </c>
+      <c r="G116" t="s">
+        <v>205</v>
+      </c>
+      <c r="H116" t="s">
+        <v>205</v>
+      </c>
+      <c r="I116" t="s">
+        <v>205</v>
+      </c>
+      <c r="J116" t="s">
+        <v>205</v>
+      </c>
+      <c r="K116" t="s">
+        <v>205</v>
+      </c>
+      <c r="L116" t="s">
+        <v>205</v>
+      </c>
+      <c r="M116" t="s">
+        <v>205</v>
+      </c>
+      <c r="N116" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
@@ -5908,6 +6916,30 @@
       <c r="F117" t="s">
         <v>205</v>
       </c>
+      <c r="G117" t="s">
+        <v>205</v>
+      </c>
+      <c r="H117" t="s">
+        <v>205</v>
+      </c>
+      <c r="I117" t="s">
+        <v>205</v>
+      </c>
+      <c r="J117" t="s">
+        <v>205</v>
+      </c>
+      <c r="K117" t="s">
+        <v>205</v>
+      </c>
+      <c r="L117" t="s">
+        <v>205</v>
+      </c>
+      <c r="M117" t="s">
+        <v>205</v>
+      </c>
+      <c r="N117" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
@@ -6016,6 +7048,30 @@
       <c r="F120" t="s">
         <v>205</v>
       </c>
+      <c r="G120" t="s">
+        <v>205</v>
+      </c>
+      <c r="H120" t="s">
+        <v>205</v>
+      </c>
+      <c r="I120" t="s">
+        <v>205</v>
+      </c>
+      <c r="J120" t="s">
+        <v>205</v>
+      </c>
+      <c r="K120" t="s">
+        <v>205</v>
+      </c>
+      <c r="L120" t="s">
+        <v>205</v>
+      </c>
+      <c r="M120" t="s">
+        <v>205</v>
+      </c>
+      <c r="N120" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
@@ -6212,6 +7268,30 @@
       <c r="F125" t="s">
         <v>205</v>
       </c>
+      <c r="G125" t="s">
+        <v>205</v>
+      </c>
+      <c r="H125" t="s">
+        <v>205</v>
+      </c>
+      <c r="I125" t="s">
+        <v>205</v>
+      </c>
+      <c r="J125" t="s">
+        <v>205</v>
+      </c>
+      <c r="K125" t="s">
+        <v>205</v>
+      </c>
+      <c r="L125" t="s">
+        <v>205</v>
+      </c>
+      <c r="M125" t="s">
+        <v>205</v>
+      </c>
+      <c r="N125" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
@@ -6232,6 +7312,30 @@
       <c r="F126" t="s">
         <v>205</v>
       </c>
+      <c r="G126" t="s">
+        <v>205</v>
+      </c>
+      <c r="H126" t="s">
+        <v>205</v>
+      </c>
+      <c r="I126" t="s">
+        <v>205</v>
+      </c>
+      <c r="J126" t="s">
+        <v>205</v>
+      </c>
+      <c r="K126" t="s">
+        <v>205</v>
+      </c>
+      <c r="L126" t="s">
+        <v>205</v>
+      </c>
+      <c r="M126" t="s">
+        <v>205</v>
+      </c>
+      <c r="N126" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
@@ -6384,6 +7488,30 @@
       <c r="F130" t="s">
         <v>205</v>
       </c>
+      <c r="G130" t="s">
+        <v>205</v>
+      </c>
+      <c r="H130" t="s">
+        <v>205</v>
+      </c>
+      <c r="I130" t="s">
+        <v>205</v>
+      </c>
+      <c r="J130" t="s">
+        <v>205</v>
+      </c>
+      <c r="K130" t="s">
+        <v>205</v>
+      </c>
+      <c r="L130" t="s">
+        <v>205</v>
+      </c>
+      <c r="M130" t="s">
+        <v>205</v>
+      </c>
+      <c r="N130" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
@@ -6668,6 +7796,30 @@
       <c r="F137" t="s">
         <v>205</v>
       </c>
+      <c r="G137" t="s">
+        <v>205</v>
+      </c>
+      <c r="H137" t="s">
+        <v>205</v>
+      </c>
+      <c r="I137" t="s">
+        <v>205</v>
+      </c>
+      <c r="J137" t="s">
+        <v>205</v>
+      </c>
+      <c r="K137" t="s">
+        <v>205</v>
+      </c>
+      <c r="L137" t="s">
+        <v>205</v>
+      </c>
+      <c r="M137" t="s">
+        <v>205</v>
+      </c>
+      <c r="N137" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
@@ -6688,6 +7840,30 @@
       <c r="F138" t="s">
         <v>205</v>
       </c>
+      <c r="G138" t="s">
+        <v>205</v>
+      </c>
+      <c r="H138" t="s">
+        <v>205</v>
+      </c>
+      <c r="I138" t="s">
+        <v>205</v>
+      </c>
+      <c r="J138" t="s">
+        <v>205</v>
+      </c>
+      <c r="K138" t="s">
+        <v>205</v>
+      </c>
+      <c r="L138" t="s">
+        <v>205</v>
+      </c>
+      <c r="M138" t="s">
+        <v>205</v>
+      </c>
+      <c r="N138" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
@@ -6796,6 +7972,30 @@
       <c r="F141" t="s">
         <v>205</v>
       </c>
+      <c r="G141" t="s">
+        <v>205</v>
+      </c>
+      <c r="H141" t="s">
+        <v>205</v>
+      </c>
+      <c r="I141" t="s">
+        <v>205</v>
+      </c>
+      <c r="J141" t="s">
+        <v>205</v>
+      </c>
+      <c r="K141" t="s">
+        <v>205</v>
+      </c>
+      <c r="L141" t="s">
+        <v>205</v>
+      </c>
+      <c r="M141" t="s">
+        <v>205</v>
+      </c>
+      <c r="N141" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
@@ -6816,6 +8016,30 @@
       <c r="F142" t="s">
         <v>205</v>
       </c>
+      <c r="G142" t="s">
+        <v>205</v>
+      </c>
+      <c r="H142" t="s">
+        <v>205</v>
+      </c>
+      <c r="I142" t="s">
+        <v>205</v>
+      </c>
+      <c r="J142" t="s">
+        <v>205</v>
+      </c>
+      <c r="K142" t="s">
+        <v>205</v>
+      </c>
+      <c r="L142" t="s">
+        <v>205</v>
+      </c>
+      <c r="M142" t="s">
+        <v>205</v>
+      </c>
+      <c r="N142" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
@@ -6880,6 +8104,30 @@
       <c r="F144" t="s">
         <v>205</v>
       </c>
+      <c r="G144" t="s">
+        <v>205</v>
+      </c>
+      <c r="H144" t="s">
+        <v>205</v>
+      </c>
+      <c r="I144" t="s">
+        <v>205</v>
+      </c>
+      <c r="J144" t="s">
+        <v>205</v>
+      </c>
+      <c r="K144" t="s">
+        <v>205</v>
+      </c>
+      <c r="L144" t="s">
+        <v>205</v>
+      </c>
+      <c r="M144" t="s">
+        <v>205</v>
+      </c>
+      <c r="N144" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
@@ -6944,6 +8192,30 @@
       <c r="F146" t="s">
         <v>205</v>
       </c>
+      <c r="G146" t="s">
+        <v>205</v>
+      </c>
+      <c r="H146" t="s">
+        <v>205</v>
+      </c>
+      <c r="I146" t="s">
+        <v>205</v>
+      </c>
+      <c r="J146" t="s">
+        <v>205</v>
+      </c>
+      <c r="K146" t="s">
+        <v>205</v>
+      </c>
+      <c r="L146" t="s">
+        <v>205</v>
+      </c>
+      <c r="M146" t="s">
+        <v>205</v>
+      </c>
+      <c r="N146" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
@@ -6964,6 +8236,30 @@
       <c r="F147" t="s">
         <v>205</v>
       </c>
+      <c r="G147" t="s">
+        <v>205</v>
+      </c>
+      <c r="H147" t="s">
+        <v>205</v>
+      </c>
+      <c r="I147" t="s">
+        <v>205</v>
+      </c>
+      <c r="J147" t="s">
+        <v>205</v>
+      </c>
+      <c r="K147" t="s">
+        <v>205</v>
+      </c>
+      <c r="L147" t="s">
+        <v>205</v>
+      </c>
+      <c r="M147" t="s">
+        <v>205</v>
+      </c>
+      <c r="N147" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="1">
@@ -7248,6 +8544,30 @@
       <c r="F154" t="s">
         <v>205</v>
       </c>
+      <c r="G154" t="s">
+        <v>205</v>
+      </c>
+      <c r="H154" t="s">
+        <v>205</v>
+      </c>
+      <c r="I154" t="s">
+        <v>205</v>
+      </c>
+      <c r="J154" t="s">
+        <v>205</v>
+      </c>
+      <c r="K154" t="s">
+        <v>205</v>
+      </c>
+      <c r="L154" t="s">
+        <v>205</v>
+      </c>
+      <c r="M154" t="s">
+        <v>205</v>
+      </c>
+      <c r="N154" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
@@ -7356,6 +8676,30 @@
       <c r="F157" t="s">
         <v>205</v>
       </c>
+      <c r="G157" t="s">
+        <v>205</v>
+      </c>
+      <c r="H157" t="s">
+        <v>205</v>
+      </c>
+      <c r="I157" t="s">
+        <v>205</v>
+      </c>
+      <c r="J157" t="s">
+        <v>205</v>
+      </c>
+      <c r="K157" t="s">
+        <v>205</v>
+      </c>
+      <c r="L157" t="s">
+        <v>205</v>
+      </c>
+      <c r="M157" t="s">
+        <v>205</v>
+      </c>
+      <c r="N157" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
@@ -7464,6 +8808,30 @@
       <c r="F160" t="s">
         <v>205</v>
       </c>
+      <c r="G160" t="s">
+        <v>205</v>
+      </c>
+      <c r="H160" t="s">
+        <v>205</v>
+      </c>
+      <c r="I160" t="s">
+        <v>205</v>
+      </c>
+      <c r="J160" t="s">
+        <v>205</v>
+      </c>
+      <c r="K160" t="s">
+        <v>205</v>
+      </c>
+      <c r="L160" t="s">
+        <v>205</v>
+      </c>
+      <c r="M160" t="s">
+        <v>205</v>
+      </c>
+      <c r="N160" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
@@ -7528,6 +8896,30 @@
       <c r="F162" t="s">
         <v>205</v>
       </c>
+      <c r="G162" t="s">
+        <v>205</v>
+      </c>
+      <c r="H162" t="s">
+        <v>205</v>
+      </c>
+      <c r="I162" t="s">
+        <v>205</v>
+      </c>
+      <c r="J162" t="s">
+        <v>205</v>
+      </c>
+      <c r="K162" t="s">
+        <v>205</v>
+      </c>
+      <c r="L162" t="s">
+        <v>205</v>
+      </c>
+      <c r="M162" t="s">
+        <v>205</v>
+      </c>
+      <c r="N162" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
@@ -7680,6 +9072,30 @@
       <c r="F166" t="s">
         <v>205</v>
       </c>
+      <c r="G166" t="s">
+        <v>205</v>
+      </c>
+      <c r="H166" t="s">
+        <v>205</v>
+      </c>
+      <c r="I166" t="s">
+        <v>205</v>
+      </c>
+      <c r="J166" t="s">
+        <v>205</v>
+      </c>
+      <c r="K166" t="s">
+        <v>205</v>
+      </c>
+      <c r="L166" t="s">
+        <v>205</v>
+      </c>
+      <c r="M166" t="s">
+        <v>205</v>
+      </c>
+      <c r="N166" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
@@ -7788,6 +9204,30 @@
       <c r="F169" t="s">
         <v>205</v>
       </c>
+      <c r="G169" t="s">
+        <v>205</v>
+      </c>
+      <c r="H169" t="s">
+        <v>205</v>
+      </c>
+      <c r="I169" t="s">
+        <v>205</v>
+      </c>
+      <c r="J169" t="s">
+        <v>205</v>
+      </c>
+      <c r="K169" t="s">
+        <v>205</v>
+      </c>
+      <c r="L169" t="s">
+        <v>205</v>
+      </c>
+      <c r="M169" t="s">
+        <v>205</v>
+      </c>
+      <c r="N169" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1">
@@ -8028,6 +9468,30 @@
       <c r="F175" t="s">
         <v>205</v>
       </c>
+      <c r="G175" t="s">
+        <v>205</v>
+      </c>
+      <c r="H175" t="s">
+        <v>205</v>
+      </c>
+      <c r="I175" t="s">
+        <v>205</v>
+      </c>
+      <c r="J175" t="s">
+        <v>205</v>
+      </c>
+      <c r="K175" t="s">
+        <v>205</v>
+      </c>
+      <c r="L175" t="s">
+        <v>205</v>
+      </c>
+      <c r="M175" t="s">
+        <v>205</v>
+      </c>
+      <c r="N175" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
@@ -8180,6 +9644,30 @@
       <c r="F179" t="s">
         <v>205</v>
       </c>
+      <c r="G179" t="s">
+        <v>205</v>
+      </c>
+      <c r="H179" t="s">
+        <v>205</v>
+      </c>
+      <c r="I179" t="s">
+        <v>205</v>
+      </c>
+      <c r="J179" t="s">
+        <v>205</v>
+      </c>
+      <c r="K179" t="s">
+        <v>205</v>
+      </c>
+      <c r="L179" t="s">
+        <v>205</v>
+      </c>
+      <c r="M179" t="s">
+        <v>205</v>
+      </c>
+      <c r="N179" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
@@ -8288,6 +9776,30 @@
       <c r="F182" t="s">
         <v>205</v>
       </c>
+      <c r="G182" t="s">
+        <v>205</v>
+      </c>
+      <c r="H182" t="s">
+        <v>205</v>
+      </c>
+      <c r="I182" t="s">
+        <v>205</v>
+      </c>
+      <c r="J182" t="s">
+        <v>205</v>
+      </c>
+      <c r="K182" t="s">
+        <v>205</v>
+      </c>
+      <c r="L182" t="s">
+        <v>205</v>
+      </c>
+      <c r="M182" t="s">
+        <v>205</v>
+      </c>
+      <c r="N182" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
@@ -8526,6 +10038,30 @@
         <v>1</v>
       </c>
       <c r="F188" t="s">
+        <v>205</v>
+      </c>
+      <c r="G188" t="s">
+        <v>205</v>
+      </c>
+      <c r="H188" t="s">
+        <v>205</v>
+      </c>
+      <c r="I188" t="s">
+        <v>205</v>
+      </c>
+      <c r="J188" t="s">
+        <v>205</v>
+      </c>
+      <c r="K188" t="s">
+        <v>205</v>
+      </c>
+      <c r="L188" t="s">
+        <v>205</v>
+      </c>
+      <c r="M188" t="s">
+        <v>205</v>
+      </c>
+      <c r="N188" t="s">
         <v>205</v>
       </c>
     </row>

--- a/sequences/06_retrieval_1.xlsx
+++ b/sequences/06_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>wärmen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>schauen</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>kürzen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>nutzen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>schlagen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>teilen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>herzen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>streifen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>foltern</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>stürzen</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>pressen</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>beten</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>scheiden</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
     <t>nennen</t>
   </si>
   <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>stärken</t>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>feuern</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>fassen</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>weinen</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>schultern</t>
   </si>
   <si>
     <t>biegen</t>
   </si>
   <si>
-    <t>heulen</t>
+    <t>führen</t>
   </si>
   <si>
     <t>segeln</t>
   </si>
   <si>
-    <t>fragen</t>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
   </si>
   <si>
     <t>ehren</t>
   </si>
   <si>
-    <t>filmen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>spuren</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>schlafen</t>
-  </si>
-  <si>
-    <t>stürzen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>schlagen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>prügeln</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>wahren</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>backen</t>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
   </si>
   <si>
     <t>zögern</t>
   </si>
   <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>putzen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>spinnen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>jubeln</t>
+    <t>machen</t>
   </si>
   <si>
     <t>drehen</t>
-  </si>
-  <si>
-    <t>quälen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>sitzen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>rauchen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>socken</t>
-  </si>
-  <si>
-    <t>folgen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>schwächen</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>dingen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>polen</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>schlampen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>zeichnen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>lockern</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>regen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>leiden</t>
-  </si>
-  <si>
-    <t>widmen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>stehen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>herzen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>äußern</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>russen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>morden</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>lösen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>regeln</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
   </si>
   <si>
     <t>N/A</t>
